--- a/Deliverable 2/Optimisations.xlsx
+++ b/Deliverable 2/Optimisations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\dissertation\Deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D7D5B2-BFC5-497F-8739-D61F939124A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACDEF36-A6FF-4297-AB0D-2E55A06EC2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-1965" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>benchmark scene name</t>
   </si>
@@ -55,13 +55,23 @@
   </si>
   <si>
     <t>DATA FPS after</t>
+  </si>
+  <si>
+    <t>Percentage increase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,14 +97,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -372,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F6"/>
+  <dimension ref="A3:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,9 +400,10 @@
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -407,8 +422,11 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -419,15 +437,32 @@
         <f>SUM(C4:C6)/COUNT(C4:C6)</f>
         <v>29.72666666666667</v>
       </c>
+      <c r="E4">
+        <v>27.78</v>
+      </c>
+      <c r="F4">
+        <f>SUM(E4:E6)/COUNT(E4:E6)</f>
+        <v>27.8</v>
+      </c>
+      <c r="G4" s="2">
+        <f>(F4-D4)/D4</f>
+        <v>-6.4812738282126123E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>29.67</v>
       </c>
+      <c r="E5">
+        <v>27.71</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>29.81</v>
+      </c>
+      <c r="E6">
+        <v>27.91</v>
       </c>
     </row>
   </sheetData>
